--- a/WingtipToys/仕様検討用ワーク.xlsx
+++ b/WingtipToys/仕様検討用ワーク.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jurin\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jurin\sandbox\learning-asp.net\WingtipToys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="476" documentId="11_AD4D066CA252ABDACC1048AD9192C83872EEDF49" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{91AEEB53-AE83-4329-ACEB-DE7D6426DECA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BC7D71-4A99-4822-BBD5-923427C36F4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="70" yWindow="760" windowWidth="21120" windowHeight="12470" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="34">
   <si>
     <t>#01</t>
   </si>
@@ -172,6 +173,32 @@
   <si>
     <t xml:space="preserve">                            List&lt;ColumnOfOneTable&gt;
 OrderedDictionary(od)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あ
+い
+う</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>COL1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>COL2</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2549,7 +2576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05AFF45-32BF-4024-B88E-11BC761A1E4B}">
   <dimension ref="B1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -2935,4 +2962,51 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB50F17-F4C6-4500-91B1-5B978BFDA99C}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="54">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="54">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="54">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>